--- a/demo/src/main/resources/static/taskDetails.xlsx
+++ b/demo/src/main/resources/static/taskDetails.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TaskId</t>
   </si>
@@ -35,19 +35,7 @@
     <t>ObjectId</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Motor Monthly Inspection</t>
-  </si>
-  <si>
-    <t>I2S01</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>2024-05-31T00:00:00Z</t>
+    <t>Log</t>
   </si>
 </sst>
 </file>
@@ -92,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -120,25 +108,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/demo/src/main/resources/static/taskDetails.xlsx
+++ b/demo/src/main/resources/static/taskDetails.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>TaskId</t>
   </si>
@@ -36,6 +36,30 @@
   </si>
   <si>
     <t>Log</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Test From App 5 here</t>
+  </si>
+  <si>
+    <t>I2S01</t>
+  </si>
+  <si>
+    <t>WORKSTARTED</t>
+  </si>
+  <si>
+    <t>2023-10-18T08:00:00Z</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Unsupported operation.</t>
   </si>
 </sst>
 </file>
@@ -80,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -112,6 +136,32 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
